--- a/EL - Electrical/Autre/Tableau de bord/Carte élecs/Afficheur temp/TEMP_BOM.xlsx
+++ b/EL - Electrical/Autre/Tableau de bord/Carte élecs/Afficheur temp/TEMP_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Tableau de bord\Carte élecs\Afficheur temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A6707E-2355-4717-9B8A-5763660B96F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF20A708-15F0-4014-88C4-201266DF5A13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMP_BOM" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
-  <si>
-    <t>Part</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+  <si>
+    <t>Qty</t>
   </si>
   <si>
     <t>Value</t>
@@ -31,13 +31,22 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R-EU_0204/7</t>
+  </si>
+  <si>
+    <t>RESISTOR, European symbol</t>
+  </si>
+  <si>
+    <t>22-23-2041</t>
+  </si>
+  <si>
+    <t>.100 (2.54mm) Center Header - 4 Pin"</t>
   </si>
   <si>
     <t>500pF</t>
@@ -46,148 +55,34 @@
     <t>C-EU025-025X050</t>
   </si>
   <si>
-    <t>C025-025X050</t>
-  </si>
-  <si>
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>135pF</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>135 pF</t>
-  </si>
-  <si>
-    <t>IC1</t>
+    <t>BA56-11EWA</t>
+  </si>
+  <si>
+    <t>14.22mm (0.56INCH) THREE DIGIT NUMERIC DISPLAY</t>
   </si>
   <si>
     <t>MCP23008P</t>
   </si>
   <si>
-    <t>DIL18</t>
-  </si>
-  <si>
     <t>8-Bit I/O Expander with I2C Interface</t>
   </si>
   <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>BA56-11EWA</t>
-  </si>
-  <si>
-    <t>BA/BC56</t>
-  </si>
-  <si>
-    <t>14.22mm (0.56INCH) THREE DIGIT NUMERIC DISPLAY</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R-EU_0204/7</t>
-  </si>
-  <si>
-    <t>0204/7</t>
-  </si>
-  <si>
-    <t>RESISTOR, European symbol</t>
-  </si>
-  <si>
-    <t>R1A</t>
-  </si>
-  <si>
-    <t>R1B</t>
-  </si>
-  <si>
-    <t>R1C</t>
-  </si>
-  <si>
-    <t>R1D</t>
-  </si>
-  <si>
-    <t>R1E</t>
-  </si>
-  <si>
-    <t>R1F</t>
-  </si>
-  <si>
-    <t>R1G</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R2A</t>
-  </si>
-  <si>
-    <t>R2B</t>
-  </si>
-  <si>
-    <t>R2C</t>
-  </si>
-  <si>
-    <t>R2D</t>
-  </si>
-  <si>
-    <t>R2DP</t>
-  </si>
-  <si>
-    <t>R2E</t>
-  </si>
-  <si>
-    <t>R2F</t>
-  </si>
-  <si>
-    <t>R2G</t>
-  </si>
-  <si>
-    <t>R3A</t>
-  </si>
-  <si>
-    <t>R3B</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>22-23-2041</t>
-  </si>
-  <si>
-    <t>.100 (2.54mm) Center Header - 4 Pin"</t>
-  </si>
-  <si>
     <t>Dispo au garage ?</t>
   </si>
   <si>
+    <t xml:space="preserve">Je sais pas </t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
     <t>Référence RS</t>
   </si>
   <si>
-    <t xml:space="preserve">Je sais pas </t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
     <t>non</t>
-  </si>
-  <si>
-    <t>716-7282</t>
-  </si>
-  <si>
-    <t>J'ai trouvé que 120 pF</t>
   </si>
   <si>
     <t>831-3026</t>
@@ -199,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +226,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -707,19 +610,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -767,24 +657,27 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,13 +687,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -852,7 +742,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,7 +756,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1186,25 +1076,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,609 +1106,168 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>52</v>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="K2" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>230</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>470</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>53</v>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="L3" s="11" t="s">
-        <v>51</v>
-      </c>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <v>470</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4">
-        <v>470</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>470</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4">
-        <v>470</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4">
-        <v>470</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4">
-        <v>470</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4">
-        <v>470</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="4">
-        <v>470</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4">
-        <v>470</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4">
-        <v>470</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4">
-        <v>470</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4">
-        <v>470</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="4">
-        <v>470</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4">
-        <v>470</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4">
-        <v>470</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="4">
-        <v>230</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4">
-        <v>230</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H3:I4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F2:F27">
+  <conditionalFormatting sqref="E2:E8">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="oui">
-      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Je sais pas">
-      <formula>NOT(ISERROR(SEARCH("Je sais pas",F2)))</formula>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Je sais pas">
+      <formula>NOT(ISERROR(SEARCH("Je sais pas",E2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="non">
-      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="oui">
-      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27">
-      <formula1>$L$1:$L$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$K$1:$K$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>